--- a/public/excel/Nominee coc.xlsx
+++ b/public/excel/Nominee coc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">S. No </t>
   </si>
@@ -31,6 +31,24 @@
     <t xml:space="preserve">Executive Head </t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Amit Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Secretary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lakhan Lal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representative in Lalitpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nikhil Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Raman Gupta</t>
   </si>
   <si>
@@ -41,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Screening Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Nikhil Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Committee</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Bishan Singh</t>
@@ -146,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,18 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +268,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,24 +493,24 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -486,10 +518,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -657,6 +689,32 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
